--- a/DateBase/orders/Dang Nguyen_2025-7-12.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-12.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -605,10 +605,355 @@
       <c r="A21" t="str">
         <v>3</v>
       </c>
+      <c r="C21" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F21" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>326_红继木_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>273_蓝调_bluetone_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>3</v>
+      </c>
+      <c r="C34" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>227_多头卡布奇诺_Cappuccino spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>4</v>
+      </c>
+      <c r="C40" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F41" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>700_米酒果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>705_中华桔梗_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>457_茴香花_lace flower yellow_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>361_小天使鹅掌芋_Thaumatophyllum xanadu_Thaumatophyllum xanadu_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>771_美洲茶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>559_粉廖_Polygonum_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>455_粉星花_tweedia pink_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>779_景天绿_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>5</v>
+      </c>
+      <c r="C53" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>224_折射_Reflex_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>550_蕾丝红色_lace flower brown_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F61" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -666,7 +1011,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0355515105101010555357520500</v>
+        <v>0355515105101010555357520506051051520101015992015157101510402051015101310102051510134464301055</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-7-12.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-12.xlsx
@@ -1013,6 +1013,9 @@
       <c r="G2" t="str">
         <v>0355515105101010555357520506051051520101015992015157101510402051015101310102051510134464301055</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
